--- a/supplementary/Supplementary Table S1.xlsx
+++ b/supplementary/Supplementary Table S1.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ubuntu\project\ThermoNet\supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79674E4A-9718-4D56-9483-9675EA8AEAA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE37FDCE-160E-411E-9FE9-49D5A7BC156A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23234" windowHeight="9729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -438,7 +445,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
